--- a/mc/dqn/TWF.FIMTX HOT  _dqn Back-Testing Strategy Performance Report.xlsx
+++ b/mc/dqn/TWF.FIMTX HOT  _dqn Back-Testing Strategy Performance Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\A-Deep-RL-Framework-for-Index-futures-Trading\mc\dqn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6ED433-71FA-4FEB-884D-B28C909073B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{794B4320-7BD2-4FEE-9153-C3A14EC9160E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12540" xr2:uid="{D364C87B-B2B6-4B13-96FF-03265015688D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9975" xr2:uid="{C0F86D30-FCA5-4093-8003-E06EDAEC664F}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy Analysis" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>Strategy Performance Summary</t>
   </si>
@@ -199,13 +199,13 @@
     <t>Trading Period</t>
   </si>
   <si>
-    <t>11 Yrs, 1 Mth, 12 Dys</t>
+    <t>11 Yrs, 5 Mths, 3 Dys</t>
   </si>
   <si>
     <t>Time in the Market</t>
   </si>
   <si>
-    <t>7 Yrs, 7 Mths, 11 Dys</t>
+    <t>7 Yrs, 10 Mths, 8 Dys</t>
   </si>
   <si>
     <t>Percent in the Market</t>
@@ -649,16 +649,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0598C0B1-B0F1-4AAA-81A1-F68AE6A112FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE092E7-AC5D-4451-8C32-55E9419F4C11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -674,7 +674,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="15300960"/>
+          <a:off x="0" y="15030450"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -693,16 +693,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7071E1-3444-4BB5-9D66-F2475136059D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752102BB-928E-44B7-B7D0-A0311E9565FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -718,7 +718,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26433780"/>
+          <a:off x="0" y="25965150"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -737,16 +737,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71EC0BF-6C94-4506-8508-1630F33B58F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94463F29-1663-4123-BBA6-D97579749FAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -762,7 +762,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="37566600"/>
+          <a:off x="0" y="36899850"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -781,16 +781,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>262</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD866868-E61F-4842-B197-98F8C11D40BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5631FAF-0935-4C2F-9953-C527EC322D13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -806,7 +806,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="48699420"/>
+          <a:off x="0" y="47834550"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -825,16 +825,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2999C115-565F-413A-A2CF-D68B6664D395}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC6AFF1-1430-4315-91F2-82C105127ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -850,7 +850,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="59832240"/>
+          <a:off x="0" y="58769250"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -869,16 +869,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>366</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78ED600E-83AC-403B-90A1-F093EEB6F50A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5B565B-B168-4712-9A6D-A26836375D27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -894,7 +894,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="70965060"/>
+          <a:off x="0" y="69703950"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,16 +913,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>418</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F7E69C-6127-4566-A884-5AF9E141992B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B34D03-3559-4FDB-9B6F-2BCB3CC53FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -938,7 +938,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="82097880"/>
+          <a:off x="0" y="80638650"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -957,16 +957,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1403033</xdr:colOff>
-      <xdr:row>470</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C2EE72-9B01-4225-A76B-B56E049F90F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F249C97F-E0EC-4E05-9142-4855569838D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,7 +982,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="93230700"/>
+          <a:off x="0" y="91573350"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1001,16 +1001,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1397318</xdr:colOff>
-      <xdr:row>522</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B113DFE5-4504-4CD2-A8C3-3D9DCCDB4CB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4334F395-53FB-4B20-A815-4C5EABB3DE19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1026,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="104363520"/>
+          <a:off x="0" y="102508050"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1045,16 +1045,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1385888</xdr:colOff>
-      <xdr:row>574</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>575</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5217C1-AA6F-4D02-88BC-2F43830F7CBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C405A67-9A8B-4424-A48E-47C8A04E7244}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1070,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="115496340"/>
+          <a:off x="0" y="113442750"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1094,16 +1094,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB94D03A-12C9-4AC6-ADB9-81DF2D81E3F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA4065C-65EF-4CC9-A0B3-F5CBD48B6E14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="17084040"/>
+          <a:off x="0" y="16783050"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1138,16 +1138,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B246CF27-4A90-4005-8113-F7B2B2496E06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D27D4FE-5906-4916-ACC6-E0C359A6A2A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1163,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="28216860"/>
+          <a:off x="0" y="27717750"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1182,16 +1182,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C59FAA-FD4D-4798-8625-39F4346E301B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E0128-16EA-42FE-8259-ECE723F3E9DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1207,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="39349680"/>
+          <a:off x="0" y="38652450"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1226,16 +1226,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D15DCE-7E8C-456A-A59B-7580128BDD7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C8AE37-E3A4-4CCE-A87F-7CCDBDD79AF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1251,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="50482500"/>
+          <a:off x="0" y="49587150"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1270,16 +1270,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>322</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94147E8A-FB7E-4EAF-AC6D-F92E1D3D0352}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72027AC1-0F5B-46CB-B952-3C03B33BB26C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1295,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="61615320"/>
+          <a:off x="0" y="60521850"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1314,16 +1314,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>374</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447F245D-229E-49ED-B4DE-2248F66323CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331BD1FA-23F5-4B47-9113-1041774FCB9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="72748140"/>
+          <a:off x="0" y="71456550"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1358,16 +1358,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>426</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D033DA-77E9-49F9-B43E-7C5A8A72FF72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D74A5E0F-709A-429A-84C6-3F2A851980DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1383,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="83880960"/>
+          <a:off x="0" y="82391250"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1402,16 +1402,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1404938</xdr:colOff>
-      <xdr:row>478</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3004DAEE-4CF1-4075-A75C-653E11B0572C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D8CBC4-EF47-4A20-8397-CA66D77F2388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="95013780"/>
+          <a:off x="0" y="93325950"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1446,16 +1446,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1403033</xdr:colOff>
-      <xdr:row>530</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C0D1F0-FAB6-45D9-BD7D-FD4179A883FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A148748-89BB-44AC-9902-0852A02204AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="106146600"/>
+          <a:off x="0" y="104260650"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1490,16 +1490,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1397318</xdr:colOff>
-      <xdr:row>582</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D194FEA1-C53B-47EC-8E4C-E8BB53CB72F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC75A09-CB5D-4BFA-853D-4487A24F0A52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="117279420"/>
+          <a:off x="0" y="115195350"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1534,16 +1534,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1385888</xdr:colOff>
-      <xdr:row>634</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>1380173</xdr:colOff>
+      <xdr:row>635</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8F8534-33AB-4DE0-8577-5DC458703277}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE06BBD9-9CEA-4FCA-8960-CBF201FA39B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1559,7 +1559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="128412240"/>
+          <a:off x="0" y="126130050"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1583,16 +1583,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F4FDFF-75B7-4B54-BDD8-FD3371AAEE89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B400896C-9C43-4066-9DD0-67390B63A2EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13045440"/>
+          <a:off x="0" y="12820650"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1627,16 +1627,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="圖片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A23EFF-0B76-4E96-9EDE-31786A6A8517}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F121D678-02BF-456F-BE84-DA6A79C82B31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="24178260"/>
+          <a:off x="0" y="23755350"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1671,16 +1671,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="圖片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD650BCE-AAF9-4C2B-B10E-3DA07AA60278}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82E8A1D-DD30-464A-9D92-A53E5C817033}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,7 +1696,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="35311080"/>
+          <a:off x="0" y="34690050"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1715,16 +1715,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="圖片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91057385-3C78-4FB0-A02F-F7020C5C2C0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DFCB65-A2DF-4189-BFC4-FD03BB2A09B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1740,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="46443900"/>
+          <a:off x="0" y="45624750"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1759,16 +1759,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>302</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="圖片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DDDC45-0C15-45C3-B1FE-370762199757}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF335C6A-FD6D-49C7-859D-A2E0FD1FF9BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1784,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="57576720"/>
+          <a:off x="0" y="56559450"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1803,16 +1803,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>354</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550E7439-ECA3-4DDB-8BF2-7E1771881B57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0E1F0C-A697-4C00-B25E-510C75E66879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1828,7 +1828,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="68709540"/>
+          <a:off x="0" y="67494150"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1847,16 +1847,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>406</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>407</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35351876-C439-430D-8CF2-DA9A3DD39B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA5CA7C-6CB6-4797-A527-1E47FBB2F076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,7 +1872,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="79842360"/>
+          <a:off x="0" y="78428850"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1891,16 +1891,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>458</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>459</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="圖片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{083D2712-109B-4D21-8CEE-AF859822BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B718A28-113A-4882-B56C-A994EBC0F4A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="90975180"/>
+          <a:off x="0" y="89363550"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1935,16 +1935,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>510</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="圖片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05BC2061-5653-49F3-98B0-BC6C88D4A296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C40CA1F-3FDC-4929-9A56-6C569F141DF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1960,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="102108000"/>
+          <a:off x="0" y="100298250"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1979,16 +1979,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>562</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="圖片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CA0DDA1-D89A-488B-8AA9-6E7E557FEE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC30275-8507-487B-A323-2700AD4EB491}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2004,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="113240820"/>
+          <a:off x="0" y="111232950"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2023,16 +2023,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>614</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>615</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="圖片 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55381EDE-9D06-4D85-9837-869A78C91D79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5718F7C3-D28C-4C60-915F-02448EC899E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2048,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="124373640"/>
+          <a:off x="0" y="122167650"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2067,16 +2067,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>666</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>667</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="圖片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6441D4CD-3A98-4196-BA57-37D7D47BD6B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14E4FF7-FB83-483E-B69B-F6539CF3331B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2092,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="135506460"/>
+          <a:off x="0" y="133102350"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2111,16 +2111,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>718</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>719</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="圖片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0530018-D66E-4669-A2F1-D3DFDC4C4F6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C48CBB-8D9B-4B6D-90BC-565A065786AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2136,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="146639280"/>
+          <a:off x="0" y="144037050"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2155,16 +2155,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>770</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>771</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="圖片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B7D4DA-7A18-4B27-AF18-2640EC41645D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32EB678-1F8F-4C09-9006-0694402A3950}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2180,7 +2180,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="157772100"/>
+          <a:off x="0" y="154971750"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2199,16 +2199,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>822</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>823</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="圖片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB42AE0-CBCF-4B9B-9F7A-8AB77CEEA341}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DE4414-3137-4C39-B300-7EC1F90253E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2224,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="168904920"/>
+          <a:off x="0" y="165906450"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2243,16 +2243,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>874</xdr:row>
-      <xdr:rowOff>151448</xdr:rowOff>
+      <xdr:colOff>141923</xdr:colOff>
+      <xdr:row>875</xdr:row>
+      <xdr:rowOff>75248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="圖片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39DC3ACA-417C-4F08-BC42-0F08D4A3F48D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FEB16C-1E93-48E8-BDB5-DF29A7DBD1A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2268,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="180037740"/>
+          <a:off x="0" y="176841150"/>
           <a:ext cx="7619048" cy="7619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2577,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771ED9BB-57F0-48AA-93F8-2C5261B53D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE20A63-1CE1-4F36-9B15-7FEAD6B5F5EA}">
   <dimension ref="A1:D538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2609,10 +2609,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>648750</v>
+        <v>3867600</v>
       </c>
       <c r="C4" s="3">
-        <v>648750</v>
+        <v>3867600</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -2623,10 +2623,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>1458050</v>
+        <v>6863400</v>
       </c>
       <c r="C5" s="3">
-        <v>1458050</v>
+        <v>6863400</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -2637,10 +2637,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>-809300</v>
+        <v>-2995800</v>
       </c>
       <c r="C6" s="3">
-        <v>-809300</v>
+        <v>-2995800</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -2651,10 +2651,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>444646.18112279748</v>
+        <v>3001214.6718241591</v>
       </c>
       <c r="C7" s="3">
-        <v>444646.18112279748</v>
+        <v>3001214.6718241591</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -2665,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>1326044.3554827059</v>
+        <v>6270492.5447864886</v>
       </c>
       <c r="C8" s="3">
-        <v>1326044.3554827059</v>
+        <v>6270492.5447864886</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -2679,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>-881398.17435990821</v>
+        <v>-3269277.8729623295</v>
       </c>
       <c r="C9" s="3">
-        <v>-881398.17435990821</v>
+        <v>-3269277.8729623295</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2693,10 +2693,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>300100</v>
+        <v>1930800</v>
       </c>
       <c r="C10" s="3">
-        <v>300100</v>
+        <v>1930800</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2707,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>821350</v>
+        <v>3829800</v>
       </c>
       <c r="C11" s="3">
-        <v>821350</v>
+        <v>3829800</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -2721,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>-521250</v>
+        <v>-1899000</v>
       </c>
       <c r="C12" s="3">
-        <v>-521250</v>
+        <v>-1899000</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2735,10 +2735,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>83200</v>
+        <v>252600</v>
       </c>
       <c r="C13" s="3">
-        <v>83200</v>
+        <v>252600</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -2749,10 +2749,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="4">
-        <v>7.7974759615384617</v>
+        <v>15.311163895486937</v>
       </c>
       <c r="C14" s="4">
-        <v>7.7974759615384617</v>
+        <v>15.311163895486937</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -2763,10 +2763,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>0.64875000000000005</v>
+        <v>3.8675999999999999</v>
       </c>
       <c r="C15" s="4">
-        <v>0.64875000000000005</v>
+        <v>3.8675999999999999</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>5</v>
@@ -2777,10 +2777,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>-104950</v>
+        <v>-396600</v>
       </c>
       <c r="C16" s="3">
-        <v>-104950</v>
+        <v>-396600</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>5</v>
@@ -2791,10 +2791,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>-8.7406851947321549</v>
+        <v>-19.887682515911646</v>
       </c>
       <c r="C17" s="4">
-        <v>-8.7406851947321549</v>
+        <v>-19.887682515911646</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>5</v>
@@ -2805,10 +2805,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>-83200</v>
+        <v>-252600</v>
       </c>
       <c r="C18" s="3">
-        <v>-83200</v>
+        <v>-252600</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>5</v>
@@ -2819,10 +2819,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="4">
-        <v>-7.8605508054230236E-2</v>
+        <v>-0.16808543569106948</v>
       </c>
       <c r="C19" s="4">
-        <v>-7.8605508054230236E-2</v>
+        <v>-0.16808543569106948</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>5</v>
@@ -2833,10 +2833,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>6.1815150071462606</v>
+        <v>9.7518910741301053</v>
       </c>
       <c r="C20">
-        <v>6.1815150071462606</v>
+        <v>9.7518910741301053</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -2847,10 +2847,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1.8016186828123069</v>
+        <v>2.2910074103745242</v>
       </c>
       <c r="C21">
-        <v>1.8016186828123069</v>
+        <v>2.2910074103745242</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -2861,10 +2861,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1.504478218877308</v>
+        <v>1.9180053786938351</v>
       </c>
       <c r="C22">
-        <v>1.504478218877308</v>
+        <v>1.9180053786938351</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -2875,10 +2875,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1.5757314148681054</v>
+        <v>2.0167456556082151</v>
       </c>
       <c r="C23">
-        <v>1.5757314148681054</v>
+        <v>2.0167456556082151</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -2917,10 +2917,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>248500</v>
+        <v>254000</v>
       </c>
       <c r="C26" s="3">
-        <v>248500</v>
+        <v>254000</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>5</v>
@@ -2930,11 +2930,11 @@
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="C27" s="3">
-        <v>-9500</v>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>5</v>
@@ -2945,10 +2945,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>5.8536545825098811E-2</v>
+        <v>0.33965878817023326</v>
       </c>
       <c r="C28" s="4">
-        <v>5.8536545825098811E-2</v>
+        <v>0.33965878817023326</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>5</v>
@@ -2959,10 +2959,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>4.8780454854249009E-3</v>
+        <v>2.8304899014186105E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>4.8780454854249009E-3</v>
+        <v>2.8304899014186105E-2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>5</v>
@@ -2973,10 +2973,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>1165104.4456347078</v>
+        <v>1349223.3529726833</v>
       </c>
       <c r="C30" s="3">
-        <v>1165104.4456347078</v>
+        <v>1349223.3529726833</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -2987,13 +2987,13 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>4770.5223880597014</v>
+        <v>28230.656934306568</v>
       </c>
       <c r="C31" s="3">
-        <v>4770.5223880597014</v>
+        <v>28230.656934306568</v>
       </c>
       <c r="D31" s="3">
-        <v>4770.5223880597014</v>
+        <v>28230.656934306568</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3001,13 +3001,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>16833.916949879338</v>
+        <v>70093.316541807086</v>
       </c>
       <c r="C32" s="3">
-        <v>16833.916949879338</v>
+        <v>70093.316541807086</v>
       </c>
       <c r="D32" s="3">
-        <v>16833.916949879338</v>
+        <v>70093.316541807086</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3015,10 +3015,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C33">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>0.49193548387096775</v>
+        <v>0.52755905511811019</v>
       </c>
       <c r="C34" s="4">
-        <v>0.49193548387096775</v>
+        <v>0.52755905511811019</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -3048,7 +3048,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>88.272830896717167</v>
+        <v>48.110088664282266</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.15189877615777375</v>
+        <v>0.29666285713478935</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +3064,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.52619279582559231</v>
+        <v>1.0276702825520048</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.25058119753727881</v>
+        <v>0.47424343160907129</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +3080,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>3.5758527557717954E-3</v>
+        <v>1.0750510380114514E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,7 +3088,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>3.1114848031888392E-2</v>
+        <v>1.6528414882772683E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.9935002882235419E-3</v>
+        <v>1.9785088387438751E-3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>74.578019254321873</v>
+        <v>125.52222854830765</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,7 +3112,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>17.162698412698411</v>
+        <v>26.097165991902834</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3120,7 +3120,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>15.803897685749087</v>
+        <v>23.771358328211431</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3128,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>6.1815150071462606</v>
+        <v>9.7518910741301053</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +3136,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>7.9391534391534391</v>
+        <v>13.02834008097166</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>7.3105968331303286</v>
+        <v>11.867240319606639</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3152,7 +3152,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>2.8594568842305859</v>
+        <v>4.868381240544629</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3160,7 +3160,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>11.763126484730092</v>
+        <v>20.251111145912006</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3168,7 +3168,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>10.831819272175334</v>
+        <v>18.446310214039084</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3176,7 +3176,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>4.2367430311843499</v>
+        <v>7.5673592330412482</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
@@ -3205,7 +3205,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="4">
-        <v>0.68428853754940711</v>
+        <v>0.68694397691752829</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3245,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="5">
-        <v>41114</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="19.5" x14ac:dyDescent="0.25">
@@ -3301,13 +3301,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08190AB-7811-4131-9CC9-7C3B52D9AFF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C368E710-0546-4D67-A495-8A93D8B8A3F3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3330,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E6FACB-CF0D-47B1-A9EC-CE5B675C6AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA71E1D-29F4-4824-AB9F-1DDF599F59A2}">
   <dimension ref="A1:D598"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3362,10 +3362,10 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>77</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>78</v>
       </c>
       <c r="B6">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C6">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>79</v>
       </c>
       <c r="B7">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         <v>35</v>
       </c>
       <c r="B8" s="4">
-        <v>0.49193548387096775</v>
+        <v>0.52755905511811019</v>
       </c>
       <c r="C8" s="4">
-        <v>0.49193548387096775</v>
+        <v>0.52755905511811019</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>80</v>
       </c>
       <c r="B9" s="3">
-        <v>2615.927419354839</v>
+        <v>15226.771653543306</v>
       </c>
       <c r="C9" s="3">
-        <v>2615.927419354839</v>
+        <v>15226.771653543306</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -3446,10 +3446,10 @@
         <v>81</v>
       </c>
       <c r="B10" s="3">
-        <v>11951.22950819672</v>
+        <v>51219.402985074623</v>
       </c>
       <c r="C10" s="3">
-        <v>11951.22950819672</v>
+        <v>51219.402985074623</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3460,10 +3460,10 @@
         <v>82</v>
       </c>
       <c r="B11" s="3">
-        <v>-6423.0158730158737</v>
+        <v>-24965</v>
       </c>
       <c r="C11" s="3">
-        <v>-6423.0158730158737</v>
+        <v>-24965</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -3474,10 +3474,10 @@
         <v>83</v>
       </c>
       <c r="B12">
-        <v>1.8606881478225463</v>
+        <v>2.0516484272010662</v>
       </c>
       <c r="C12">
-        <v>1.8606881478225463</v>
+        <v>2.0516484272010662</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -3488,10 +3488,10 @@
         <v>84</v>
       </c>
       <c r="B13" s="4">
-        <v>77700</v>
+        <v>313800</v>
       </c>
       <c r="C13" s="4">
-        <v>77700</v>
+        <v>313800</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>5</v>
@@ -3502,10 +3502,10 @@
         <v>85</v>
       </c>
       <c r="B14" s="4">
-        <v>-37800</v>
+        <v>-148200</v>
       </c>
       <c r="C14" s="4">
-        <v>-37800</v>
+        <v>-148200</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>5</v>
@@ -3516,10 +3516,10 @@
         <v>86</v>
       </c>
       <c r="B15">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="C15">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -3530,10 +3530,10 @@
         <v>87</v>
       </c>
       <c r="B16">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="C16">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -3544,10 +3544,10 @@
         <v>88</v>
       </c>
       <c r="B17">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="C17">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -3572,10 +3572,10 @@
         <v>90</v>
       </c>
       <c r="B19">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="C19">
-        <v>11.6</v>
+        <v>10.4</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -3586,10 +3586,10 @@
         <v>91</v>
       </c>
       <c r="B20">
-        <v>16.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C20">
-        <v>16.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -3616,13 +3616,13 @@
         <v>96</v>
       </c>
       <c r="B26" s="3">
-        <v>13708.878825439413</v>
+        <v>59067.940313979067</v>
       </c>
       <c r="C26" s="3">
-        <v>13359.118690797854</v>
+        <v>58409.762647807642</v>
       </c>
       <c r="D26" s="3">
-        <v>5584.688534891272</v>
+        <v>22738.552942436028</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,13 +3630,13 @@
         <v>97</v>
       </c>
       <c r="B27" s="3">
-        <v>16324.806244794252</v>
+        <v>74294.71196752238</v>
       </c>
       <c r="C27" s="3">
-        <v>25310.348198994576</v>
+        <v>109629.16563288227</v>
       </c>
       <c r="D27" s="3">
-        <v>-838.32733812460128</v>
+        <v>-2226.4470575639707</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>98</v>
       </c>
       <c r="B28" s="3">
-        <v>-11092.951406084574</v>
+        <v>-43841.16866043576</v>
       </c>
       <c r="C28" s="3">
-        <v>-1407.8891826011329</v>
+        <v>-7190.3596627330217</v>
       </c>
       <c r="D28" s="3">
-        <v>-12007.704407907146</v>
+        <v>-47703.552942436036</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3661,10 +3661,10 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3672,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="B30" s="3">
-        <v>348650</v>
+        <v>1936800</v>
       </c>
       <c r="C30" s="3">
-        <v>636700</v>
+        <v>3033600</v>
       </c>
       <c r="D30" s="3">
-        <v>-288050</v>
+        <v>-1096800</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3699,10 +3699,10 @@
         <v>104</v>
       </c>
       <c r="B36" s="3">
-        <v>92950</v>
+        <v>373300</v>
       </c>
       <c r="C36" s="3">
-        <v>-41050</v>
+        <v>-162700</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>106</v>
       </c>
       <c r="B38" s="3">
-        <v>9995.3815261044165</v>
+        <v>44419.685039370081</v>
       </c>
       <c r="C38" s="3">
-        <v>-5880.522088353413</v>
+        <v>-22392.125984251968</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3732,10 +3732,10 @@
         <v>107</v>
       </c>
       <c r="B39" s="4">
-        <v>0.14153106912744348</v>
+        <v>0.14235011466637545</v>
       </c>
       <c r="C39" s="4">
-        <v>-8.5378455179540166E-2</v>
+        <v>-8.4409713252389565E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3754,10 +3754,10 @@
         <v>109</v>
       </c>
       <c r="B41" s="4">
-        <v>2.1519616551434737E-2</v>
+        <v>2.3069729564638864E-2</v>
       </c>
       <c r="C41" s="4">
-        <v>-1.2616627913865839E-2</v>
+        <v>-1.1790864260113705E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3765,10 +3765,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="3">
-        <v>12066.989961413365</v>
+        <v>53043.525329177057</v>
       </c>
       <c r="C42" s="3">
-        <v>6295.7336527464886</v>
+        <v>25542.026458768469</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,10 +3776,10 @@
         <v>97</v>
       </c>
       <c r="B43" s="3">
-        <v>22062.371487517783</v>
+        <v>97463.210368547123</v>
       </c>
       <c r="C43" s="3">
-        <v>415.21156439307561</v>
+        <v>3149.9004745165025</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3787,10 +3787,10 @@
         <v>98</v>
       </c>
       <c r="B44" s="3">
-        <v>-2071.6084353089473</v>
+        <v>-8623.8402898069744</v>
       </c>
       <c r="C44" s="3">
-        <v>-12176.255741099902</v>
+        <v>-47934.152443020437</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>112</v>
       </c>
       <c r="B49">
-        <v>-0.44141318630324416</v>
+        <v>-0.26664923731042267</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>113</v>
       </c>
       <c r="B50">
-        <v>0.34108651550911118</v>
+        <v>0.21026119820535838</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>114</v>
       </c>
       <c r="B51" s="3">
-        <v>2615.9274193548385</v>
+        <v>15226.771653543301</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3843,7 +3843,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="3">
-        <v>231800</v>
+        <v>945200</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
         <v>118</v>
       </c>
       <c r="B55" s="3">
-        <v>-50250</v>
+        <v>-192000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>119</v>
       </c>
       <c r="B56" s="4">
-        <v>0.18848593267197919</v>
+        <v>0.36018596143586618</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>120</v>
       </c>
       <c r="B57" s="4">
-        <v>-4.1411265022443168E-2</v>
+        <v>-0.12509985620706182</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
@@ -3897,10 +3897,10 @@
         <v>27</v>
       </c>
       <c r="C63" s="3">
-        <v>10207.407407407407</v>
+        <v>50577.777777777774</v>
       </c>
       <c r="D63" s="3">
-        <v>-7975.9259259259252</v>
+        <v>-32688.888888888891</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,13 +3908,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C64" s="3">
-        <v>8794.7368421052633</v>
+        <v>37723.529411764706</v>
       </c>
       <c r="D64" s="3">
-        <v>-6400</v>
+        <v>-23929.411764705881</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +3922,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
-        <v>8883.3333333333321</v>
+        <v>45762.962962962964</v>
       </c>
       <c r="D65" s="3">
-        <v>-2757.1428571428573</v>
+        <v>-10400</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,13 +3936,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66" s="3">
-        <v>16880</v>
+        <v>63900</v>
       </c>
       <c r="D66" s="3">
-        <v>-5180</v>
+        <v>-27100</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,10 +3953,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="3">
-        <v>9230</v>
+        <v>23800</v>
       </c>
       <c r="D67" s="3">
-        <v>-7125</v>
+        <v>-18700</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,13 +3964,13 @@
         <v>6</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="3">
-        <v>38633.333333333328</v>
+        <v>100666.66666666666</v>
       </c>
       <c r="D68" s="3">
-        <v>-17250</v>
+        <v>-43900</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C70" s="3">
-        <v>-7463.461538461539</v>
+        <v>-29238.709677419352</v>
       </c>
       <c r="D70" s="3">
-        <v>10175</v>
+        <v>44264.516129032258</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="B71" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="3">
-        <v>-6481.5789473684208</v>
+        <v>-24183.333333333336</v>
       </c>
       <c r="D71" s="3">
-        <v>10002.631578947368</v>
+        <v>49388.888888888891</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,13 +4020,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="3">
-        <v>-7891.666666666667</v>
+        <v>-33226.666666666664</v>
       </c>
       <c r="D72" s="3">
-        <v>9683.3333333333321</v>
+        <v>47840</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4037,10 +4037,10 @@
         <v>4</v>
       </c>
       <c r="C73" s="3">
-        <v>-5009.375</v>
+        <v>-17037.5</v>
       </c>
       <c r="D73" s="3">
-        <v>15012.5</v>
+        <v>63050</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,10 +4051,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="3">
-        <v>-6065</v>
+        <v>-24880</v>
       </c>
       <c r="D74" s="3">
-        <v>16450</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,13 +4062,13 @@
         <v>6</v>
       </c>
       <c r="B75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>-4783.3333333333339</v>
+        <v>-16583.333333333336</v>
       </c>
       <c r="D75" s="3">
-        <v>28216.666666666668</v>
+        <v>117700</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5DD226A-D11D-40A5-9785-A2C10BE83EFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA443B2-F815-4241-8170-1F188F5996B3}">
   <dimension ref="A1:G838"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4270,22 +4270,22 @@
         <v>2021</v>
       </c>
       <c r="B40" s="3">
-        <v>71750</v>
+        <v>858100</v>
       </c>
       <c r="C40" s="4">
-        <v>4.577352472089314E-2</v>
+        <v>0.21401671031300662</v>
       </c>
       <c r="D40" s="3">
-        <v>81250</v>
+        <v>982100</v>
       </c>
       <c r="E40" s="3">
-        <v>-9500</v>
+        <v>-124000</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G40" s="4">
-        <v>0.66666666666700003</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -4293,16 +4293,16 @@
         <v>2020</v>
       </c>
       <c r="B41" s="3">
-        <v>274850</v>
+        <v>1150400</v>
       </c>
       <c r="C41" s="4">
-        <v>0.21262522724635438</v>
+        <v>0.4023643803994264</v>
       </c>
       <c r="D41" s="3">
-        <v>380250</v>
+        <v>1552500</v>
       </c>
       <c r="E41" s="3">
-        <v>-105400</v>
+        <v>-402100</v>
       </c>
       <c r="F41">
         <v>18</v>
@@ -4316,16 +4316,16 @@
         <v>2019</v>
       </c>
       <c r="B42" s="3">
-        <v>93650</v>
+        <v>442100</v>
       </c>
       <c r="C42" s="4">
-        <v>7.810675562969141E-2</v>
+        <v>0.18291270169631774</v>
       </c>
       <c r="D42" s="3">
-        <v>149000</v>
+        <v>638000</v>
       </c>
       <c r="E42" s="3">
-        <v>-55350</v>
+        <v>-195900</v>
       </c>
       <c r="F42">
         <v>23</v>
@@ -4339,16 +4339,16 @@
         <v>2018</v>
       </c>
       <c r="B43" s="3">
-        <v>-36850</v>
+        <v>-67900</v>
       </c>
       <c r="C43" s="4">
-        <v>-2.9817534490431688E-2</v>
+        <v>-2.732504326129824E-2</v>
       </c>
       <c r="D43" s="3">
-        <v>82200</v>
+        <v>363300</v>
       </c>
       <c r="E43" s="3">
-        <v>-119050</v>
+        <v>-431200</v>
       </c>
       <c r="F43">
         <v>27</v>
@@ -4362,16 +4362,16 @@
         <v>2017</v>
       </c>
       <c r="B44" s="3">
-        <v>64200</v>
+        <v>315300</v>
       </c>
       <c r="C44" s="4">
-        <v>5.4794520547945202E-2</v>
+        <v>0.14532632743362831</v>
       </c>
       <c r="D44" s="3">
-        <v>103750</v>
+        <v>446500</v>
       </c>
       <c r="E44" s="3">
-        <v>-39550</v>
+        <v>-131200</v>
       </c>
       <c r="F44">
         <v>20</v>
@@ -4385,22 +4385,22 @@
         <v>2016</v>
       </c>
       <c r="B45" s="3">
-        <v>62350</v>
+        <v>316900</v>
       </c>
       <c r="C45" s="4">
-        <v>5.6206616785360139E-2</v>
+        <v>0.17104766017164139</v>
       </c>
       <c r="D45" s="3">
-        <v>129600</v>
+        <v>552200</v>
       </c>
       <c r="E45" s="3">
-        <v>-67250</v>
+        <v>-235300</v>
       </c>
       <c r="F45">
         <v>23</v>
       </c>
       <c r="G45" s="4">
-        <v>0.47826086956500002</v>
+        <v>0.52173913043499998</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -4408,22 +4408,22 @@
         <v>2015</v>
       </c>
       <c r="B46" s="3">
-        <v>8950</v>
+        <v>104800</v>
       </c>
       <c r="C46" s="4">
-        <v>8.1337756168491839E-3</v>
+        <v>5.9957663481892555E-2</v>
       </c>
       <c r="D46" s="3">
-        <v>80650</v>
+        <v>352200</v>
       </c>
       <c r="E46" s="3">
-        <v>-71700</v>
+        <v>-247400</v>
       </c>
       <c r="F46">
         <v>24</v>
       </c>
       <c r="G46" s="4">
-        <v>0.41666666666699997</v>
+        <v>0.45833333333300003</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -4431,22 +4431,22 @@
         <v>2014</v>
       </c>
       <c r="B47" s="3">
-        <v>32300</v>
+        <v>207200</v>
       </c>
       <c r="C47" s="4">
-        <v>3.0242029867515566E-2</v>
+        <v>0.13448432530667878</v>
       </c>
       <c r="D47" s="3">
-        <v>85350</v>
+        <v>382100</v>
       </c>
       <c r="E47" s="3">
-        <v>-53050</v>
+        <v>-174900</v>
       </c>
       <c r="F47">
         <v>27</v>
       </c>
       <c r="G47" s="4">
-        <v>0.48148148148100001</v>
+        <v>0.555555555556</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -4454,22 +4454,22 @@
         <v>2013</v>
       </c>
       <c r="B48" s="3">
-        <v>68800</v>
+        <v>344200</v>
       </c>
       <c r="C48" s="4">
-        <v>6.8851638729046788E-2</v>
+        <v>0.28767237776849142</v>
       </c>
       <c r="D48" s="3">
-        <v>101000</v>
+        <v>447800</v>
       </c>
       <c r="E48" s="3">
-        <v>-32200</v>
+        <v>-103600</v>
       </c>
       <c r="F48">
         <v>24</v>
       </c>
       <c r="G48" s="4">
-        <v>0.58333333333299997</v>
+        <v>0.70833333333299997</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -4477,16 +4477,16 @@
         <v>2012</v>
       </c>
       <c r="B49" s="3">
-        <v>7150</v>
+        <v>103600</v>
       </c>
       <c r="C49" s="4">
-        <v>7.2069347847999194E-3</v>
+        <v>9.4793668222161218E-2</v>
       </c>
       <c r="D49" s="3">
-        <v>110100</v>
+        <v>473400</v>
       </c>
       <c r="E49" s="3">
-        <v>-102950</v>
+        <v>-369800</v>
       </c>
       <c r="F49">
         <v>26</v>
@@ -4500,22 +4500,22 @@
         <v>2011</v>
       </c>
       <c r="B50" s="3">
-        <v>-71450</v>
+        <v>-213800</v>
       </c>
       <c r="C50" s="4">
-        <v>-6.7180668515819664E-2</v>
+        <v>-0.16361827504400397</v>
       </c>
       <c r="D50" s="3">
-        <v>46250</v>
+        <v>207200</v>
       </c>
       <c r="E50" s="3">
-        <v>-117700</v>
+        <v>-421000</v>
       </c>
       <c r="F50">
         <v>25</v>
       </c>
       <c r="G50" s="4">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -4523,16 +4523,16 @@
         <v>2010</v>
       </c>
       <c r="B51" s="3">
-        <v>63550</v>
+        <v>306700</v>
       </c>
       <c r="C51" s="4">
-        <v>6.3549999999999995E-2</v>
+        <v>0.30669999999999997</v>
       </c>
       <c r="D51" s="3">
-        <v>123000</v>
+        <v>520500</v>
       </c>
       <c r="E51" s="3">
-        <v>-59450</v>
+        <v>-213800</v>
       </c>
       <c r="F51">
         <v>18</v>
@@ -4639,7 +4639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47FEA3E-AD98-4045-80D3-FE59146FFFE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763544E5-60D6-4A62-916F-1B6AD0EB9155}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
